--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1708016.175378178</v>
+        <v>-1710497.095203637</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1373,10 +1373,10 @@
         <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>31.28802352485024</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>379.9558991545849</v>
@@ -1385,7 +1385,7 @@
         <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>14.65678318579944</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104931</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>150.1872493108037</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830084</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,19 +1531,19 @@
         <v>140.3266745115013</v>
       </c>
       <c r="D13" t="n">
-        <v>61.41461951465438</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271942</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
         <v>69.43227382271158</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292081</v>
+        <v>62.01200608292082</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>233.9413402752443</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
         <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579945</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104932</v>
       </c>
       <c r="T14" t="n">
-        <v>11.88077891509838</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717754</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830084</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>110.0400503188331</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,16 +1771,16 @@
         <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98566086833829</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271942</v>
+        <v>32.49003650480975</v>
       </c>
       <c r="I16" t="n">
         <v>69.43227382271158</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292081</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
@@ -1822,16 +1822,16 @@
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,16 +1847,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149638</v>
+        <v>201.5926153659752</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>3.974324134330958</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245678</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
@@ -1901,13 +1901,13 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503345</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249326</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085007</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5302192482731</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>178.2734363206864</v>
       </c>
       <c r="T19" t="n">
         <v>145.6536660704501</v>
@@ -2084,16 +2084,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>133.9970110682313</v>
+        <v>3.97432413433017</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245678</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
         <v>177.0998887531829</v>
@@ -2144,7 +2144,7 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503345</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249326</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085007</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330913</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0533602654137</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>240.6420543130725</v>
       </c>
       <c r="W22" t="n">
         <v>212.6277151308719</v>
@@ -2321,16 +2321,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816014</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2381,7 +2381,7 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503345</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1198840074572</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085007</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330913</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257228</v>
@@ -2542,7 +2542,7 @@
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>207.0890643413398</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,7 +3086,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482621</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>110.5480262953173</v>
+        <v>120.6328936716416</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.3541982182264</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092319</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>134.2912433677308</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3724,7 +3724,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.20693826439334</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>164.0711673124584</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
         <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
         <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>91.27556587748751</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>134.2912433677308</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775078</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1827.830846683894</v>
+        <v>1553.357803377364</v>
       </c>
       <c r="C11" t="n">
-        <v>1486.060397003206</v>
+        <v>1211.587353696676</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.986765656179</v>
+        <v>1211.587353696676</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>852.9911683581551</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597797</v>
+        <v>469.1973308282712</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644999</v>
+        <v>81.31694793299093</v>
       </c>
       <c r="H11" t="n">
         <v>81.31694793299093</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3173.901529376036</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573495</v>
+        <v>2947.563119909596</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489648</v>
+        <v>2947.563119909596</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.512310489648</v>
+        <v>2621.986531899206</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.238619488292</v>
+        <v>2275.71284089785</v>
       </c>
       <c r="Y11" t="n">
-        <v>2187.238619488292</v>
+        <v>1912.765576181762</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.3796066778505</v>
+        <v>637.8338681055718</v>
       </c>
       <c r="C13" t="n">
-        <v>698.6354910096674</v>
+        <v>496.0897524373887</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029458</v>
+        <v>496.0897524373887</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802764</v>
+        <v>375.3687261147194</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420898</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765326</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541143</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5227,22 +5227,22 @@
         <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.369902162336</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.459102547703</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1651.459102547703</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1389.233999770466</v>
+        <v>993.0877493143818</v>
       </c>
       <c r="X13" t="n">
-        <v>1188.436516132173</v>
+        <v>792.2902656760878</v>
       </c>
       <c r="Y13" t="n">
-        <v>994.8360042483664</v>
+        <v>792.2902656760878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1752.137753459812</v>
+        <v>1796.226782517379</v>
       </c>
       <c r="C14" t="n">
-        <v>1410.367303779124</v>
+        <v>1454.456332836691</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.293672432097</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6974870935765</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>336.9036495636925</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636925</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3313.605034826242</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="U14" t="n">
-        <v>3087.266625359803</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="V14" t="n">
-        <v>2783.395805275956</v>
+        <v>2938.636400312143</v>
       </c>
       <c r="W14" t="n">
-        <v>2457.819217265566</v>
+        <v>2613.059812301753</v>
       </c>
       <c r="X14" t="n">
-        <v>2111.54552626421</v>
+        <v>2266.786121300397</v>
       </c>
       <c r="Y14" t="n">
-        <v>2111.54552626421</v>
+        <v>2155.634555321777</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>846.6025421453941</v>
+        <v>674.5515394274917</v>
       </c>
       <c r="C16" t="n">
-        <v>704.858426477211</v>
+        <v>532.8074237593087</v>
       </c>
       <c r="D16" t="n">
-        <v>581.933854324599</v>
+        <v>409.8828516066967</v>
       </c>
       <c r="E16" t="n">
-        <v>461.2128280019297</v>
+        <v>289.1618252840274</v>
       </c>
       <c r="F16" t="n">
-        <v>341.5149477637431</v>
+        <v>169.4639450458413</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765327</v>
+        <v>169.4639450458413</v>
       </c>
       <c r="H16" t="n">
         <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402573</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5452,34 +5452,34 @@
         <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.884554376953</v>
+        <v>1292.030523413538</v>
       </c>
       <c r="W16" t="n">
-        <v>1194.659451599716</v>
+        <v>1029.805420636301</v>
       </c>
       <c r="X16" t="n">
-        <v>1194.659451599716</v>
+        <v>829.0079369980076</v>
       </c>
       <c r="Y16" t="n">
-        <v>1001.05893971591</v>
+        <v>829.0079369980076</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542002</v>
+        <v>1775.325244677774</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809387</v>
+        <v>1481.004427945159</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9592424104339</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8126900199868</v>
+        <v>966.228971144636</v>
       </c>
       <c r="F17" t="n">
-        <v>293.4684854381762</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156191</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344061</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.62080593608</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417714</v>
+        <v>2979.732029417713</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>2979.732029417713</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2701.605074355396</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166342</v>
+        <v>2402.781016302114</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398327</v>
+        <v>2087.283384534099</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235551</v>
+        <v>569.1217789872281</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034453</v>
+        <v>474.8272962671183</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989066</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243106</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341973</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803861</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604099</v>
+        <v>89.19609340604102</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218339</v>
@@ -5698,25 +5698,25 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952114</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729437</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356242</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>822.2794225454039</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459978</v>
+        <v>676.1285436096708</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1650.240104949982</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C20" t="n">
-        <v>1355.919288217367</v>
+        <v>1224.583240809386</v>
       </c>
       <c r="D20" t="n">
-        <v>1072.295289818414</v>
+        <v>940.9592424104328</v>
       </c>
       <c r="E20" t="n">
-        <v>761.1487374279667</v>
+        <v>629.8126900199859</v>
       </c>
       <c r="F20" t="n">
-        <v>424.8045328461562</v>
+        <v>293.4684854381753</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156191</v>
@@ -5750,7 +5750,7 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5765,10 +5765,10 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052367</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344061</v>
       </c>
       <c r="T20" t="n">
-        <v>3289.956853344062</v>
+        <v>3158.62080593608</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.068076825695</v>
+        <v>2979.732029417713</v>
       </c>
       <c r="V20" t="n">
-        <v>2854.646889689921</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2576.519934627604</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.695876574322</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1962.198244806307</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5835,13 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.121778987228</v>
+        <v>569.1217789872281</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671181</v>
+        <v>474.8272962671183</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625795</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879834</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803861</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604099</v>
+        <v>89.19609340604102</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218339</v>
@@ -5938,22 +5938,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
         <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356241</v>
+        <v>975.6272732356242</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454038</v>
+        <v>822.2794225454039</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096707</v>
+        <v>676.1285436096708</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349349</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059181</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
         <v>73.37775482248237</v>
@@ -5990,49 +5990,49 @@
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.334913091107</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.866817763031</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.645634821813</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.61810570115</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058328</v>
+        <v>3086.333216384075</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3544.811418893063</v>
       </c>
       <c r="R23" t="n">
         <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.23877285901</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451029</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681289</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913274</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714071</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902801</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.022053929029</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235734</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504585</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094441</v>
       </c>
       <c r="I24" t="n">
         <v>73.37775482248237</v>
@@ -6069,19 +6069,19 @@
         <v>167.0550243130995</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934466</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061118</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27762327704</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821906</v>
+        <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656429</v>
+        <v>1324.38512865643</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891475</v>
+        <v>1116.624829891476</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138541</v>
+        <v>575.9874173775271</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937442</v>
+        <v>481.6929346574173</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528784</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782824</v>
+        <v>332.9466020782825</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881691</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706851</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633997</v>
+        <v>96.06173179633998</v>
       </c>
       <c r="I25" t="n">
         <v>73.37775482248237</v>
@@ -6148,13 +6148,13 @@
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,10 +6166,10 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92724547874</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
         <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720297</v>
+        <v>892.1750550720302</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362968</v>
+        <v>682.9941819999698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,7 +6212,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,22 +6224,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1986.936041136908</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N26" t="n">
-        <v>2533.71485819569</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
         <v>3750.042416521973</v>
@@ -6257,7 +6257,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6303,19 +6303,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6382,19 +6382,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
         <v>1910.743863481264</v>
@@ -6403,7 +6403,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277852</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6452,7 +6452,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>625.3777437664567</v>
       </c>
       <c r="L29" t="n">
-        <v>1635.769886219269</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M29" t="n">
-        <v>2169.301790891193</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N29" t="n">
-        <v>2716.080607949975</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O29" t="n">
-        <v>3219.053078829312</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913841</v>
@@ -6610,7 +6610,7 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.992678104634</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.524582776558</v>
+        <v>1588.411539465895</v>
       </c>
       <c r="N32" t="n">
-        <v>2475.30339983534</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,16 +6731,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803188</v>
@@ -6789,7 +6789,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6862,7 +6862,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6871,37 +6871,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464978</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,16 +6935,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6965,7 +6965,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6980,7 +6980,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7005,10 +7005,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7017,10 +7017,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5641013650709</v>
+        <v>552.4050786964423</v>
       </c>
       <c r="C37" t="n">
-        <v>473.2993530110074</v>
+        <v>482.1403303423788</v>
       </c>
       <c r="D37" t="n">
-        <v>323.1827135986717</v>
+        <v>430.6951255038865</v>
       </c>
       <c r="E37" t="n">
-        <v>273.9410545901221</v>
+        <v>381.4534664953368</v>
       </c>
       <c r="F37" t="n">
-        <v>225.7225416660552</v>
+        <v>333.2349535712698</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>211.3835458221369</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891711</v>
+        <v>886.8213698466993</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649972</v>
+        <v>757.5032535225254</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953106</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103806</v>
@@ -7157,67 +7157,67 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464978</v>
+        <v>894.1397680464984</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647789</v>
+        <v>500.9308303909358</v>
       </c>
       <c r="C40" t="n">
-        <v>430.666082036872</v>
+        <v>430.6660820368723</v>
       </c>
       <c r="D40" t="n">
-        <v>379.2208771983797</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898301</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552288</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891711</v>
+        <v>835.3471215411928</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649972</v>
+        <v>706.0290052170188</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953106</v>
+        <v>583.9078606473321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,25 +7394,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7430,28 +7430,28 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7485,16 +7485,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909355</v>
+        <v>642.2355359389142</v>
       </c>
       <c r="C43" t="n">
-        <v>430.666082036872</v>
+        <v>473.2993530110073</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245363</v>
+        <v>421.8541481725149</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>372.6124891639651</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>324.3939762398981</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>255.3625741884603</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>109.1453874063181</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1569.880212084553</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.777345210196</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.764291578153</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W43" t="n">
-        <v>835.3471215411922</v>
+        <v>976.6518270891712</v>
       </c>
       <c r="X43" t="n">
-        <v>706.0290052170184</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y43" t="n">
-        <v>583.9078606473317</v>
+        <v>725.2125661953105</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464961</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307322</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,40 +7658,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,28 +7716,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909355</v>
+        <v>740.9069705127581</v>
       </c>
       <c r="C46" t="n">
-        <v>430.666082036872</v>
+        <v>670.6422221586946</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>619.1970173202023</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>569.9553583116527</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919197</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.646827515027</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1569.880212084553</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1379.44877978404</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1223.435726151996</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.689990688879</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647053</v>
+        <v>946.005145338841</v>
       </c>
       <c r="Y46" t="n">
-        <v>682.5792952211751</v>
+        <v>823.8840007691543</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430623</v>
+        <v>157.2353108430627</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728996</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389589</v>
+        <v>191.4948909389597</v>
       </c>
       <c r="M8" t="n">
-        <v>181.085632533305</v>
+        <v>181.085632533306</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830224</v>
+        <v>179.3553748830233</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383974</v>
+        <v>182.8301554383983</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586571</v>
+        <v>190.8908035586579</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266114</v>
+        <v>192.0103836266119</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875969</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372525</v>
+        <v>113.6031223372529</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672263</v>
+        <v>105.9629718672269</v>
       </c>
       <c r="M9" t="n">
-        <v>104.101398125358</v>
+        <v>104.1013981253587</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677523</v>
+        <v>92.30246558677594</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359724</v>
+        <v>106.882960835973</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798314</v>
+        <v>105.3113487798319</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615451</v>
+        <v>120.8212784615455</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564651</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085221</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140771</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530919</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662699</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>127.499434718529</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>61.78301484554544</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>402.5500016878934</v>
+        <v>287.0017854473905</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>21.74982042514705</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>137.5908801368512</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>174.4519134245567</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>336.8335818149091</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>323.722199960285</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104932</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>26.81057424168995</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.28070691643144</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>25.66151147422016</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663269</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579945</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104932</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>165.1170446373953</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>249.277741750094</v>
       </c>
     </row>
     <row r="15">
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.1200008035634</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>85.34483182238452</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019106</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>79.19514304898867</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>333.0521183134034</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>203.029431379503</v>
+        <v>333.0521183134042</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1350602.340062519</v>
+        <v>1350602.34006252</v>
       </c>
     </row>
     <row r="5">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163855.2677434076</v>
+        <v>163855.2677434077</v>
       </c>
       <c r="C2" t="n">
         <v>163855.2677434077</v>
@@ -26326,13 +26326,13 @@
         <v>145908.0001809949</v>
       </c>
       <c r="G2" t="n">
-        <v>158906.1642493071</v>
+        <v>158906.1642493073</v>
       </c>
       <c r="H2" t="n">
         <v>158906.1642493071</v>
       </c>
       <c r="I2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="J2" t="n">
         <v>164208.3539728567</v>
@@ -26341,16 +26341,16 @@
         <v>164208.3539728567</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728567</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552486</v>
+        <v>59764.55367552378</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995419</v>
+        <v>421637.9387995423</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362525</v>
+        <v>38804.2740136252</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362525</v>
+        <v>38804.2740136252</v>
       </c>
       <c r="G4" t="n">
+        <v>75832.4343750674</v>
+      </c>
+      <c r="H4" t="n">
         <v>75832.43437506742</v>
       </c>
-      <c r="H4" t="n">
-        <v>75832.43437506743</v>
-      </c>
       <c r="I4" t="n">
-        <v>88045.16093451311</v>
+        <v>88045.16093451304</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173087</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173085</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173081</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="O4" t="n">
+        <v>90964.01098815704</v>
+      </c>
+      <c r="P4" t="n">
         <v>90964.01098815713</v>
-      </c>
-      <c r="P4" t="n">
-        <v>90964.01098815714</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186641</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
@@ -26491,25 +26491,25 @@
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311421.5822524128</v>
+        <v>-311425.9958302809</v>
       </c>
       <c r="C6" t="n">
-        <v>-311421.5822524128</v>
+        <v>-311425.9958302809</v>
       </c>
       <c r="D6" t="n">
-        <v>-352691.6639457439</v>
+        <v>-352696.0216958891</v>
       </c>
       <c r="E6" t="n">
-        <v>-1058704.736361087</v>
+        <v>-1058933.490783486</v>
       </c>
       <c r="F6" t="n">
-        <v>30534.2358025432</v>
+        <v>30305.48138014504</v>
       </c>
       <c r="G6" t="n">
-        <v>-35025.02254584925</v>
+        <v>-35091.29991739327</v>
       </c>
       <c r="H6" t="n">
-        <v>2555.086749024791</v>
+        <v>2488.809377480438</v>
       </c>
       <c r="I6" t="n">
-        <v>-32394.80309333236</v>
+        <v>-32394.80309333217</v>
       </c>
       <c r="J6" t="n">
-        <v>-35437.18012547727</v>
+        <v>-35437.18012547732</v>
       </c>
       <c r="K6" t="n">
-        <v>-10027.7471036803</v>
+        <v>-10027.74710368032</v>
       </c>
       <c r="L6" t="n">
-        <v>-47607.85639855423</v>
+        <v>-47607.85639855436</v>
       </c>
       <c r="M6" t="n">
-        <v>-211442.3543142747</v>
+        <v>-211442.3543142746</v>
       </c>
       <c r="N6" t="n">
-        <v>-9274.254321550397</v>
+        <v>-9274.254321550281</v>
       </c>
       <c r="O6" t="n">
-        <v>-9274.254321550383</v>
+        <v>-9274.254321550034</v>
       </c>
       <c r="P6" t="n">
-        <v>-9274.254321550325</v>
+        <v>-9274.254321550354</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810502</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790884</v>
+        <v>69.78465283790757</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,13 +26796,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022923</v>
@@ -26823,13 +26823,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712654</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951249</v>
+        <v>50.70958360951245</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790884</v>
+        <v>69.78465283790757</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755389</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712654</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104723</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780168</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.627234303657</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672089</v>
+        <v>84.22861846672097</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987484</v>
+        <v>90.83829126987501</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241795</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519053</v>
+        <v>84.46220888519069</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989825</v>
+        <v>7.64903505099009</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317015</v>
+        <v>75.62456067317034</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207383</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G19" t="n">
-        <v>11.49558901075514</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075554</v>
       </c>
       <c r="T19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T22" t="n">
-        <v>11.49558901075545</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075551</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D25" t="n">
-        <v>11.4955890107552</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.8952832057191</v>
+        <v>11.495589010755</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
         <v>46.97513661859256</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859318</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>55.47778196371088</v>
+        <v>45.3929145873866</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.47778196371091</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,13 +30426,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810504</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -30441,13 +30441,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>54.14548214544475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>55.47778196371081</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30852,61 +30852,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
+        <v>54.14548214544374</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>88.93215267004733</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="G46" t="n">
-        <v>97.68472022810502</v>
-      </c>
-      <c r="H46" t="n">
-        <v>97.68472022810502</v>
-      </c>
-      <c r="I46" t="n">
-        <v>96.35242040983812</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>88.93215267004734</v>
-      </c>
-      <c r="S46" t="n">
-        <v>55.47778196371112</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>97.68472022810502</v>
@@ -30921,7 +30921,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413419</v>
+        <v>0.2805413179413367</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366768</v>
+        <v>2.873093772366716</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993359</v>
+        <v>10.8155691599334</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362398</v>
+        <v>23.81059368362355</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208099</v>
+        <v>35.68590767208035</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102834</v>
+        <v>44.27152403102754</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396767</v>
+        <v>49.26060069396679</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356852</v>
+        <v>50.05768871356761</v>
       </c>
       <c r="O8" t="n">
-        <v>47.2680559832893</v>
+        <v>47.26805598328844</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661242</v>
+        <v>40.34219219661168</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478381</v>
+        <v>30.29530624783755</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313283</v>
+        <v>17.62255356313251</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588334</v>
+        <v>6.392835282588218</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288225</v>
+        <v>1.228069619288202</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530734</v>
+        <v>0.02244330543530694</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.150102838179653</v>
+        <v>0.1501028381796503</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840333</v>
+        <v>1.449677410840307</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694193</v>
+        <v>5.168014384694099</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906976</v>
+        <v>14.1814264790695</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710651</v>
+        <v>24.23831663710607</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126479</v>
+        <v>32.59140791264731</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666031</v>
+        <v>38.03263579665962</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655808</v>
+        <v>39.03924649655737</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847208</v>
+        <v>35.71328360847144</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449882</v>
+        <v>28.6630586344983</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447641</v>
+        <v>19.16049562447606</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768282</v>
+        <v>9.319542882768113</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608903</v>
+        <v>2.788094384608853</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890397</v>
+        <v>0.6050197731890287</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345594</v>
+        <v>0.009875186722345415</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248688</v>
+        <v>0.1258411772486858</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811064</v>
+        <v>1.118842466811043</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078729</v>
+        <v>3.78438740307866</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482246</v>
+        <v>8.896971231482084</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489303</v>
+        <v>14.62045677489276</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477313</v>
+        <v>18.70915102477279</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908298</v>
+        <v>19.72617653908262</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115607</v>
+        <v>19.25713215115572</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875093</v>
+        <v>17.78707839875061</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287768</v>
+        <v>15.21991838287741</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852423</v>
+        <v>10.53748257852404</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381917</v>
+        <v>5.658276933381815</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233954</v>
+        <v>2.193068516233914</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625761</v>
+        <v>0.5376850300625663</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356481</v>
+        <v>0.006864064213564686</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322369</v>
@@ -35890,7 +35890,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129113</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>583.089549110861</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>460.5450010649173</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>941.47111751812</v>
+        <v>825.9229012776173</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861327</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>358.9411069805475</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>536.3528663562229</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>630.0420278168887</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>844.8865827031284</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.328266841233</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
